--- a/questionable_measures.xlsx
+++ b/questionable_measures.xlsx
@@ -450,7 +450,7 @@
         <v>0.299</v>
       </c>
       <c r="G3">
-        <v>0.9614</v>
+        <v>0.9613</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         <v>0.329</v>
       </c>
       <c r="G4">
-        <v>0.9614</v>
+        <v>0.9613</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         <v>0.299</v>
       </c>
       <c r="G8">
-        <v>0.9614</v>
+        <v>0.9613</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         <v>0.329</v>
       </c>
       <c r="G9">
-        <v>0.9614</v>
+        <v>0.9613</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>0.299</v>
       </c>
       <c r="G18">
-        <v>0.9614</v>
+        <v>0.9613</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>0.329</v>
       </c>
       <c r="G19">
-        <v>0.9614</v>
+        <v>0.9613</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>0.866</v>
       </c>
       <c r="G24">
-        <v>0.8902</v>
+        <v>0.8903</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>0.866</v>
       </c>
       <c r="G25">
-        <v>0.954</v>
+        <v>0.9540999999999999</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>0.866</v>
       </c>
       <c r="G26">
-        <v>0.7114</v>
+        <v>0.7115</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>0.74</v>
       </c>
       <c r="G27">
-        <v>0.8902</v>
+        <v>0.8903</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="G32">
-        <v>0.887</v>
+        <v>0.8869</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>0.887</v>
+        <v>0.8869</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="G47">
-        <v>0.954</v>
+        <v>0.9540999999999999</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="G49">
-        <v>0.7413999999999999</v>
+        <v>0.7415</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="G50">
-        <v>0.7114</v>
+        <v>0.7115</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G52">
-        <v>0.7413999999999999</v>
+        <v>0.7415</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>

--- a/questionable_measures.xlsx
+++ b/questionable_measures.xlsx
@@ -581,7 +581,7 @@
         <v>0.521</v>
       </c>
       <c r="G7">
-        <v>0.9466</v>
+        <v>0.9453</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>0.521</v>
       </c>
       <c r="G17">
-        <v>0.9466</v>
+        <v>0.9453</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>0.74</v>
       </c>
       <c r="G28">
-        <v>0.7238</v>
+        <v>0.737</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G33">
-        <v>0.785</v>
+        <v>0.8045</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>0.873</v>
       </c>
       <c r="G41">
-        <v>0.802</v>
+        <v>0.8082</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>0.8090000000000001</v>
       </c>
       <c r="G43">
-        <v>0.802</v>
+        <v>0.8082</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>0.8090000000000001</v>
       </c>
       <c r="G44">
-        <v>0.9466</v>
+        <v>0.9453</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>0.785</v>
+        <v>0.8045</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="G46">
-        <v>0.7238</v>
+        <v>0.737</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
